--- a/extra/results.xlsx
+++ b/extra/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\QLAB\Corruption_Paper\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E6168A-8C9C-4D5D-8FB7-22175BCEA6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B761C08-06A1-496C-B5EB-DA284A1A1013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B0CB9EC-2EEB-4F68-B6DE-94C3595F90A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>S_E_ for MSE</t>
-  </si>
-  <si>
     <t>R-squared</t>
   </si>
   <si>
@@ -62,35 +59,65 @@
     <t>Cross-Validated elnet</t>
   </si>
   <si>
-    <t>Dependiente: Monto Corrupción Intensa</t>
-  </si>
-  <si>
-    <t>Dependiente: Monto Corrupción Amplia</t>
-  </si>
-  <si>
-    <t>Dependiente: Corrupción Intensa Dicotómica</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
     <t>Acccuracy_Score</t>
   </si>
   <si>
     <t>Log_Loss</t>
   </si>
   <si>
-    <t>Dependiente: Corrupción Amplia Dicotómica</t>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>S.E for MSE</t>
+  </si>
+  <si>
+    <t>Post_Lasso</t>
+  </si>
+  <si>
+    <t>Boosted Trees</t>
+  </si>
+  <si>
+    <t>Pruned Tree</t>
+  </si>
+  <si>
+    <t>Dependiente: Monto Corrupción Amplia (numérica)</t>
+  </si>
+  <si>
+    <t>Dependiente: Monto Corrupción Intensa (numérica)</t>
+  </si>
+  <si>
+    <t>Dependiente: Personas Corrupción Amplia (numérica)</t>
+  </si>
+  <si>
+    <t>Dependiente: Personas Corrupción Intensa (numérica)</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Dependiente: Corrupción Amplia (dicotómica)</t>
+  </si>
+  <si>
+    <t>Dependiente: Corrupción Intensa (dicotómica)</t>
+  </si>
+  <si>
+    <t>LINK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +133,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +158,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,43 +235,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,325 +588,776 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7790B6-652B-4D6E-A82C-7206600E67AA}">
-  <dimension ref="B4:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5530CD3D-CD59-492C-9D78-11F685E5F9FF}">
+  <dimension ref="B3:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="L4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9126662000000000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1234352000000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-65.978840000000005</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>95.491017999999997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11.558104</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-5.765301</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6.1449999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>135331800000000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>106914700000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1.193791E-4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13.922000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.5719999999999997E-3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.6619999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>135331800000000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>106959200000000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.5511149999999999E-16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13.922000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1.1247E-2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4.6619999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>140106100000000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>103063300000000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-3.5402030000000001E-2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14.173</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1.0319999999999999E-2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.6619999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7520890000000000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1034224000000000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-54.580359999999999</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>72.332999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.7829999999999995</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-4.1562460000000003</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>139997400000000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>103174500000000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-3.4598900000000002E-2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14.164</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.3140000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-9.6780000000000008E-3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>223854000000000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>124730400000000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.64282189999999995</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>31.029</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.1440000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1.1983269999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1394260000000000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>554509500000000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-9.2322100000000002</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17.245999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.3620000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.22183600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>223854000000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>124730400000000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.65431010000000001</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31.029</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5.1440000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1.211897</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="L16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="C19" s="2">
+        <v>9024337000000000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1299489000000000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-963.21410000000003</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>106.509484</v>
+      </c>
+      <c r="I19" s="1">
+        <v>14.524597</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-3.8035359999999998</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="N19" s="1">
+        <v>12.077999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9294272000000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2536563000000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-4.4408919999999998E-16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>21.765999999999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6.3869999999999996</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.2302E-2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12.077999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9294272000000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2536563000000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-4.4408919999999998E-16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>21.765999999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.0612999999999999E-2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="N21" s="1">
+        <v>11.654</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23062080000000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1382896000000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1.4813210000000001</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>22.149000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-5.0769999999999999E-3</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6786911000000000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>989505800000000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-729.2251</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>79.396000000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>11.045</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-2.6028319999999998</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="N23" s="1">
+        <v>11.019</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23083300000000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1393331000000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-1.4836050000000001</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22.132000000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-4.3059999999999999E-3</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="M24" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="N24" s="1">
+        <v>11.019</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>85015570000000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23630410000000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-8.0835720000000002</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1">
+        <v>47.343000000000004</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.915</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.135151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>735894100000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>332725500000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-77.627330000000001</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1">
+        <v>24.856000000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5.4619999999999997</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-0.12099600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5040296000000000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4900161000000000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10.926</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4852279000000000</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4725838000000000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-2E-3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10.573</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4863209000000000</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4759943000000000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4857015000000000</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4755135000000000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4863209000000000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4759943000000000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>120301800000000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4131156000000000</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="H14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="C27" s="2">
+        <v>85015570000000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23630410000000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-8.1470929999999999</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2064006000000000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>611578100000000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-4.9480000000000004</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3.524</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>343096900000000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>178644100000000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3.7010000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>345356200000000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>177580800000000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>340617300000000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>175506400000000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>345356200000000</v>
-      </c>
-      <c r="D20" s="2">
-        <v>177580800000000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5263792000000000</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3533486000000000</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.32700000000000001</v>
+      <c r="H27" s="1">
+        <v>47.343000000000004</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7.915</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1.148331</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L16:N16"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4:E4" r:id="rId1" display="LINK" xr:uid="{1CA6FA3A-F823-40F5-AE44-F3E57881050B}"/>
+    <hyperlink ref="B17:E17" r:id="rId2" display="LINK" xr:uid="{B5D2E761-1832-4BF0-A600-A9E3B5D7FBFE}"/>
+    <hyperlink ref="G4:J4" r:id="rId3" display="LINK" xr:uid="{5D9384FC-7A9F-46C5-9FC7-CFF967F0BB3B}"/>
+    <hyperlink ref="G17:J17" r:id="rId4" display="LINK" xr:uid="{40F39697-6798-4F7D-B562-6BED3F9030DE}"/>
+    <hyperlink ref="L4:N4" r:id="rId5" display="LINK" xr:uid="{F88A9756-8651-41ED-B7F9-61138A2B3EF4}"/>
+    <hyperlink ref="L17:N17" r:id="rId6" display="LINK" xr:uid="{E59648FA-8C68-4E85-97F3-8BF238F2FC07}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>